--- a/Project/HEV/prm_HEV_Simu_V1_1.xlsx
+++ b/Project/HEV/prm_HEV_Simu_V1_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nishito\MatWork\JmaabVccWs\Jmaab_Veh_WS_HEVmodel_20180726_18a\Project\HEV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Usrs\Nishito\MatWork\JmaabVccWs\JmaabVccWs_HEVmodel\Project\HEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE37B3-CB05-4320-975A-67C1E6CD33AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="12330" activeTab="4"/>
+    <workbookView xWindow="7572" yWindow="252" windowWidth="14400" windowHeight="8448" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体制御シート" sheetId="2" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>シミュレーション</t>
     <phoneticPr fontId="3"/>
@@ -247,13 +248,47 @@
   </si>
   <si>
     <t>HEV_Simu_V1_1/Controller/CtrlStrct_VNT_Level_2/Powertrain/Engine_Control/Engine_Control</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HevCtrlEnbl_K</t>
+  </si>
+  <si>
+    <t>HEV Control Enable switch</t>
+  </si>
+  <si>
+    <t>DrvReqPropTrq_K3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DrvReqPropTrq_K3x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DrvReqPropTrq_K3y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EngTrqMax_K2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EngTrqMax_K2x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Engine Maximum Torque Curve</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Driver Demand Torque Table</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,7 +450,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,10 +475,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3" xfId="1"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,34 +792,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -793,19 +831,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="20.875" customWidth="1"/>
+    <col min="2" max="3" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +851,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
         <v>8</v>
@@ -825,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -837,7 +875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -849,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>16</v>
@@ -859,7 +897,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>18</v>
@@ -869,7 +907,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>20</v>
@@ -881,7 +919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>24</v>
@@ -901,21 +939,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="63.75" customWidth="1"/>
+    <col min="3" max="3" width="63.69921875" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.125" customWidth="1"/>
+    <col min="6" max="6" width="48.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -925,7 +963,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -935,7 +973,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="13" t="s">
@@ -949,7 +987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
@@ -957,7 +995,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>31</v>
@@ -967,7 +1005,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -981,7 +1019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
@@ -995,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
@@ -1003,7 +1041,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
@@ -1013,7 +1051,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7" t="s">
@@ -1027,7 +1065,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
@@ -1042,21 +1080,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.25" customWidth="1"/>
+    <col min="6" max="6" width="62.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1066,7 +1104,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1076,7 +1114,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="13" t="s">
@@ -1090,7 +1128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
@@ -1098,7 +1136,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>31</v>
@@ -1108,7 +1146,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -1122,7 +1160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -1130,7 +1168,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -1140,7 +1178,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
@@ -1154,44 +1192,103 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94.625" customWidth="1"/>
+    <col min="6" max="6" width="94.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1298,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1211,7 +1308,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="13" t="s">
@@ -1225,7 +1322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
@@ -1233,7 +1330,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>31</v>
@@ -1243,7 +1340,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -1257,7 +1354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -1269,7 +1366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -1279,7 +1376,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
@@ -1293,7 +1390,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="7"/>
